--- a/excel_files/case_new_status.xlsx
+++ b/excel_files/case_new_status.xlsx
@@ -22,7 +22,7 @@
     <t>status</t>
   </si>
   <si>
-    <t>case_count</t>
+    <t>cases_created</t>
   </si>
   <si>
     <t>last_updated</t>

--- a/excel_files/case_new_status.xlsx
+++ b/excel_files/case_new_status.xlsx
@@ -1521,7 +1521,7 @@
         <v>10</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1532,7 +1532,7 @@
         <v>11</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1697,7 +1697,7 @@
         <v>11</v>
       </c>
       <c r="C115">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1730,7 +1730,7 @@
         <v>14</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3">

--- a/excel_files/case_new_status.xlsx
+++ b/excel_files/case_new_status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -429,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,7 +448,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45292</v>
+        <v>44958</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45292</v>
+        <v>44958</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45292</v>
+        <v>44958</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45292</v>
+        <v>44958</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45292</v>
+        <v>44958</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45292</v>
+        <v>44958</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45292</v>
+        <v>44958</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -525,18 +525,18 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45292</v>
+        <v>44958</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45292</v>
+        <v>44958</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45292</v>
+        <v>44958</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45292</v>
+        <v>44958</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45292</v>
+        <v>44958</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45292</v>
+        <v>44958</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -591,18 +591,18 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45292</v>
+        <v>44958</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45292</v>
+        <v>44958</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -613,18 +613,18 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45323</v>
+        <v>44986</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45323</v>
+        <v>44986</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -635,29 +635,29 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45323</v>
+        <v>44986</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45323</v>
+        <v>44986</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45323</v>
+        <v>44986</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45323</v>
+        <v>44986</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -679,62 +679,62 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45323</v>
+        <v>44986</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45323</v>
+        <v>44986</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24">
-        <v>371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45323</v>
+        <v>44986</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45323</v>
+        <v>44986</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45323</v>
+        <v>44986</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45323</v>
+        <v>44986</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45323</v>
+        <v>44986</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>45323</v>
+        <v>44986</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
@@ -767,29 +767,29 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>45323</v>
+        <v>44986</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>45352</v>
+        <v>45017</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>45352</v>
+        <v>45017</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>45352</v>
+        <v>45017</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>45352</v>
+        <v>45017</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>45352</v>
+        <v>45017</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
@@ -833,18 +833,18 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>45352</v>
+        <v>45017</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>45352</v>
+        <v>45017</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
@@ -855,29 +855,29 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>45352</v>
+        <v>45017</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>45352</v>
+        <v>45017</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>45352</v>
+        <v>45017</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>45352</v>
+        <v>45017</v>
       </c>
       <c r="B42" t="s">
         <v>13</v>
@@ -899,18 +899,18 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>45352</v>
+        <v>45017</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>45352</v>
+        <v>45017</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>45352</v>
+        <v>45017</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>45352</v>
+        <v>45017</v>
       </c>
       <c r="B46" t="s">
         <v>17</v>
@@ -943,73 +943,73 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>45383</v>
+        <v>45047</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
       </c>
       <c r="C47">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>45383</v>
+        <v>45047</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
       </c>
       <c r="C48">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>45383</v>
+        <v>45047</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
       </c>
       <c r="C49">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>45383</v>
+        <v>45047</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
       </c>
       <c r="C50">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>45383</v>
+        <v>45047</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
       <c r="C51">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>45383</v>
+        <v>45047</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>45383</v>
+        <v>45047</v>
       </c>
       <c r="B53" t="s">
         <v>9</v>
@@ -1020,29 +1020,29 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>45383</v>
+        <v>45047</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
       </c>
       <c r="C54">
-        <v>228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>45383</v>
+        <v>45047</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>45383</v>
+        <v>45047</v>
       </c>
       <c r="B56" t="s">
         <v>12</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>45383</v>
+        <v>45047</v>
       </c>
       <c r="B57" t="s">
         <v>13</v>
@@ -1064,29 +1064,29 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>45383</v>
+        <v>45047</v>
       </c>
       <c r="B58" t="s">
         <v>14</v>
       </c>
       <c r="C58">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>45383</v>
+        <v>45047</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
       </c>
       <c r="C59">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>45383</v>
+        <v>45047</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>45383</v>
+        <v>45047</v>
       </c>
       <c r="B61" t="s">
         <v>17</v>
@@ -1108,18 +1108,18 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>45413</v>
+        <v>45078</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>45413</v>
+        <v>45078</v>
       </c>
       <c r="B63" t="s">
         <v>4</v>
@@ -1130,18 +1130,18 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2">
-        <v>45413</v>
+        <v>45078</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2">
-        <v>45413</v>
+        <v>45078</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -1152,18 +1152,18 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2">
-        <v>45413</v>
+        <v>45078</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2">
-        <v>45413</v>
+        <v>45078</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2">
-        <v>45413</v>
+        <v>45078</v>
       </c>
       <c r="B68" t="s">
         <v>9</v>
@@ -1185,29 +1185,29 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2">
-        <v>45413</v>
+        <v>45078</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
       </c>
       <c r="C69">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2">
-        <v>45413</v>
+        <v>45078</v>
       </c>
       <c r="B70" t="s">
         <v>11</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2">
-        <v>45413</v>
+        <v>45078</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2">
-        <v>45413</v>
+        <v>45078</v>
       </c>
       <c r="B72" t="s">
         <v>13</v>
@@ -1229,18 +1229,18 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2">
-        <v>45413</v>
+        <v>45078</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2">
-        <v>45413</v>
+        <v>45078</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2">
-        <v>45413</v>
+        <v>45078</v>
       </c>
       <c r="B75" t="s">
         <v>16</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2">
-        <v>45413</v>
+        <v>45078</v>
       </c>
       <c r="B76" t="s">
         <v>17</v>
@@ -1273,73 +1273,73 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2">
-        <v>45444</v>
+        <v>45108</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
       </c>
       <c r="C77">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2">
-        <v>45444</v>
+        <v>45108</v>
       </c>
       <c r="B78" t="s">
         <v>4</v>
       </c>
       <c r="C78">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2">
-        <v>45444</v>
+        <v>45108</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
       </c>
       <c r="C79">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2">
-        <v>45444</v>
+        <v>45108</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2">
-        <v>45444</v>
+        <v>45108</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
       </c>
       <c r="C81">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2">
-        <v>45444</v>
+        <v>45108</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2">
-        <v>45444</v>
+        <v>45108</v>
       </c>
       <c r="B83" t="s">
         <v>9</v>
@@ -1350,29 +1350,29 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2">
-        <v>45444</v>
+        <v>45108</v>
       </c>
       <c r="B84" t="s">
         <v>10</v>
       </c>
       <c r="C84">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2">
-        <v>45444</v>
+        <v>45108</v>
       </c>
       <c r="B85" t="s">
         <v>11</v>
       </c>
       <c r="C85">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2">
-        <v>45444</v>
+        <v>45108</v>
       </c>
       <c r="B86" t="s">
         <v>12</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2">
-        <v>45444</v>
+        <v>45108</v>
       </c>
       <c r="B87" t="s">
         <v>13</v>
@@ -1394,29 +1394,29 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2">
-        <v>45444</v>
+        <v>45108</v>
       </c>
       <c r="B88" t="s">
         <v>14</v>
       </c>
       <c r="C88">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2">
-        <v>45444</v>
+        <v>45108</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2">
-        <v>45444</v>
+        <v>45108</v>
       </c>
       <c r="B90" t="s">
         <v>16</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2">
-        <v>45444</v>
+        <v>45108</v>
       </c>
       <c r="B91" t="s">
         <v>17</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2">
-        <v>45474</v>
+        <v>45139</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2">
-        <v>45474</v>
+        <v>45139</v>
       </c>
       <c r="B93" t="s">
         <v>4</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2">
-        <v>45474</v>
+        <v>45139</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2">
-        <v>45474</v>
+        <v>45139</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2">
-        <v>45474</v>
+        <v>45139</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2">
-        <v>45474</v>
+        <v>45139</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2">
-        <v>45474</v>
+        <v>45139</v>
       </c>
       <c r="B98" t="s">
         <v>9</v>
@@ -1515,29 +1515,29 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2">
-        <v>45474</v>
+        <v>45139</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2">
-        <v>45474</v>
+        <v>45139</v>
       </c>
       <c r="B100" t="s">
         <v>11</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2">
-        <v>45474</v>
+        <v>45139</v>
       </c>
       <c r="B101" t="s">
         <v>12</v>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2">
-        <v>45474</v>
+        <v>45139</v>
       </c>
       <c r="B102" t="s">
         <v>13</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2">
-        <v>45474</v>
+        <v>45139</v>
       </c>
       <c r="B103" t="s">
         <v>14</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2">
-        <v>45474</v>
+        <v>45139</v>
       </c>
       <c r="B104" t="s">
         <v>15</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2">
-        <v>45474</v>
+        <v>45139</v>
       </c>
       <c r="B105" t="s">
         <v>16</v>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2">
-        <v>45474</v>
+        <v>45139</v>
       </c>
       <c r="B106" t="s">
         <v>17</v>
@@ -1603,18 +1603,18 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2">
-        <v>45505</v>
+        <v>45170</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2">
-        <v>45505</v>
+        <v>45170</v>
       </c>
       <c r="B108" t="s">
         <v>4</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2">
-        <v>45505</v>
+        <v>45170</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2">
-        <v>45505</v>
+        <v>45170</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2">
-        <v>45505</v>
+        <v>45170</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
@@ -1658,18 +1658,18 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2">
-        <v>45505</v>
+        <v>45170</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2">
-        <v>45505</v>
+        <v>45170</v>
       </c>
       <c r="B113" t="s">
         <v>9</v>
@@ -1680,29 +1680,29 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2">
-        <v>45505</v>
+        <v>45170</v>
       </c>
       <c r="B114" t="s">
         <v>10</v>
       </c>
       <c r="C114">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2">
-        <v>45505</v>
+        <v>45170</v>
       </c>
       <c r="B115" t="s">
         <v>11</v>
       </c>
       <c r="C115">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2">
-        <v>45505</v>
+        <v>45170</v>
       </c>
       <c r="B116" t="s">
         <v>12</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2">
-        <v>45505</v>
+        <v>45170</v>
       </c>
       <c r="B117" t="s">
         <v>13</v>
@@ -1724,18 +1724,18 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2">
-        <v>45505</v>
+        <v>45170</v>
       </c>
       <c r="B118" t="s">
         <v>14</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2">
-        <v>45505</v>
+        <v>45170</v>
       </c>
       <c r="B119" t="s">
         <v>15</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2">
-        <v>45505</v>
+        <v>45170</v>
       </c>
       <c r="B120" t="s">
         <v>16</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2">
-        <v>45505</v>
+        <v>45170</v>
       </c>
       <c r="B121" t="s">
         <v>17</v>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2">
-        <v>45536</v>
+        <v>45200</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2">
-        <v>45536</v>
+        <v>45200</v>
       </c>
       <c r="B123" t="s">
         <v>4</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2">
-        <v>45536</v>
+        <v>45200</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2">
-        <v>45536</v>
+        <v>45200</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2">
-        <v>45536</v>
+        <v>45200</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
@@ -1823,18 +1823,18 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2">
-        <v>45536</v>
+        <v>45200</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2">
-        <v>45536</v>
+        <v>45200</v>
       </c>
       <c r="B128" t="s">
         <v>9</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2">
-        <v>45536</v>
+        <v>45200</v>
       </c>
       <c r="B129" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2">
-        <v>45536</v>
+        <v>45200</v>
       </c>
       <c r="B130" t="s">
         <v>11</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2">
-        <v>45536</v>
+        <v>45200</v>
       </c>
       <c r="B131" t="s">
         <v>12</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2">
-        <v>45536</v>
+        <v>45200</v>
       </c>
       <c r="B132" t="s">
         <v>13</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2">
-        <v>45536</v>
+        <v>45200</v>
       </c>
       <c r="B133" t="s">
         <v>14</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2">
-        <v>45536</v>
+        <v>45200</v>
       </c>
       <c r="B134" t="s">
         <v>15</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2">
-        <v>45536</v>
+        <v>45200</v>
       </c>
       <c r="B135" t="s">
         <v>16</v>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2">
-        <v>45536</v>
+        <v>45200</v>
       </c>
       <c r="B136" t="s">
         <v>17</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2">
-        <v>45566</v>
+        <v>45231</v>
       </c>
       <c r="B137" t="s">
         <v>3</v>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2">
-        <v>45566</v>
+        <v>45231</v>
       </c>
       <c r="B138" t="s">
         <v>4</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2">
-        <v>45566</v>
+        <v>45231</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2">
-        <v>45566</v>
+        <v>45231</v>
       </c>
       <c r="B140" t="s">
         <v>6</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2">
-        <v>45566</v>
+        <v>45231</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2">
-        <v>45566</v>
+        <v>45231</v>
       </c>
       <c r="B142" t="s">
         <v>8</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2">
-        <v>45566</v>
+        <v>45231</v>
       </c>
       <c r="B143" t="s">
         <v>9</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2">
-        <v>45566</v>
+        <v>45231</v>
       </c>
       <c r="B144" t="s">
         <v>10</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2">
-        <v>45566</v>
+        <v>45231</v>
       </c>
       <c r="B145" t="s">
         <v>11</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2">
-        <v>45566</v>
+        <v>45231</v>
       </c>
       <c r="B146" t="s">
         <v>12</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2">
-        <v>45566</v>
+        <v>45231</v>
       </c>
       <c r="B147" t="s">
         <v>13</v>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2">
-        <v>45566</v>
+        <v>45231</v>
       </c>
       <c r="B148" t="s">
         <v>14</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2">
-        <v>45566</v>
+        <v>45231</v>
       </c>
       <c r="B149" t="s">
         <v>15</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="2">
-        <v>45566</v>
+        <v>45231</v>
       </c>
       <c r="B150" t="s">
         <v>16</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="2">
-        <v>45566</v>
+        <v>45231</v>
       </c>
       <c r="B151" t="s">
         <v>17</v>
@@ -2098,7 +2098,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="2">
-        <v>45597</v>
+        <v>45261</v>
       </c>
       <c r="B152" t="s">
         <v>3</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="2">
-        <v>45597</v>
+        <v>45261</v>
       </c>
       <c r="B153" t="s">
         <v>4</v>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="2">
-        <v>45597</v>
+        <v>45261</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2">
-        <v>45597</v>
+        <v>45261</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2">
-        <v>45597</v>
+        <v>45261</v>
       </c>
       <c r="B156" t="s">
         <v>7</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2">
-        <v>45597</v>
+        <v>45261</v>
       </c>
       <c r="B157" t="s">
         <v>8</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2">
-        <v>45597</v>
+        <v>45261</v>
       </c>
       <c r="B158" t="s">
         <v>9</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2">
-        <v>45597</v>
+        <v>45261</v>
       </c>
       <c r="B159" t="s">
         <v>10</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2">
-        <v>45597</v>
+        <v>45261</v>
       </c>
       <c r="B160" t="s">
         <v>11</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="2">
-        <v>45597</v>
+        <v>45261</v>
       </c>
       <c r="B161" t="s">
         <v>12</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="2">
-        <v>45597</v>
+        <v>45261</v>
       </c>
       <c r="B162" t="s">
         <v>13</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="2">
-        <v>45597</v>
+        <v>45261</v>
       </c>
       <c r="B163" t="s">
         <v>14</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="2">
-        <v>45597</v>
+        <v>45261</v>
       </c>
       <c r="B164" t="s">
         <v>15</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="2">
-        <v>45597</v>
+        <v>45261</v>
       </c>
       <c r="B165" t="s">
         <v>16</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2">
-        <v>45597</v>
+        <v>45261</v>
       </c>
       <c r="B166" t="s">
         <v>17</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2">
-        <v>45627</v>
+        <v>45292</v>
       </c>
       <c r="B167" t="s">
         <v>3</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="2">
-        <v>45627</v>
+        <v>45292</v>
       </c>
       <c r="B168" t="s">
         <v>4</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="2">
-        <v>45627</v>
+        <v>45292</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="2">
-        <v>45627</v>
+        <v>45292</v>
       </c>
       <c r="B170" t="s">
         <v>6</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="2">
-        <v>45627</v>
+        <v>45292</v>
       </c>
       <c r="B171" t="s">
         <v>7</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="2">
-        <v>45627</v>
+        <v>45292</v>
       </c>
       <c r="B172" t="s">
         <v>8</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="2">
-        <v>45627</v>
+        <v>45292</v>
       </c>
       <c r="B173" t="s">
         <v>9</v>
@@ -2340,7 +2340,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="2">
-        <v>45627</v>
+        <v>45292</v>
       </c>
       <c r="B174" t="s">
         <v>10</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="2">
-        <v>45627</v>
+        <v>45292</v>
       </c>
       <c r="B175" t="s">
         <v>11</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2">
-        <v>45627</v>
+        <v>45292</v>
       </c>
       <c r="B176" t="s">
         <v>12</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2">
-        <v>45627</v>
+        <v>45292</v>
       </c>
       <c r="B177" t="s">
         <v>13</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2">
-        <v>45627</v>
+        <v>45292</v>
       </c>
       <c r="B178" t="s">
         <v>14</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2">
-        <v>45627</v>
+        <v>45292</v>
       </c>
       <c r="B179" t="s">
         <v>15</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="2">
-        <v>45627</v>
+        <v>45292</v>
       </c>
       <c r="B180" t="s">
         <v>16</v>
@@ -2417,12 +2417,1332 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="2">
-        <v>45627</v>
+        <v>45292</v>
       </c>
       <c r="B181" t="s">
         <v>17</v>
       </c>
       <c r="C181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B182" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B183" t="s">
+        <v>4</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B185" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B186" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B188" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B189" t="s">
+        <v>10</v>
+      </c>
+      <c r="C189">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B190" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B191" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B192" t="s">
+        <v>13</v>
+      </c>
+      <c r="C192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B193" t="s">
+        <v>14</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B194" t="s">
+        <v>15</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B195" t="s">
+        <v>16</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B196" t="s">
+        <v>17</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B197" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B198" t="s">
+        <v>4</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B200" t="s">
+        <v>6</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B202" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B203" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B204" t="s">
+        <v>10</v>
+      </c>
+      <c r="C204">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B205" t="s">
+        <v>11</v>
+      </c>
+      <c r="C205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B206" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B207" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B208" t="s">
+        <v>14</v>
+      </c>
+      <c r="C208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B209" t="s">
+        <v>15</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B210" t="s">
+        <v>16</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B211" t="s">
+        <v>17</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B212" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B213" t="s">
+        <v>4</v>
+      </c>
+      <c r="C213">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B215" t="s">
+        <v>6</v>
+      </c>
+      <c r="C215">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B216" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B217" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B218" t="s">
+        <v>9</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B219" t="s">
+        <v>10</v>
+      </c>
+      <c r="C219">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B220" t="s">
+        <v>11</v>
+      </c>
+      <c r="C220">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B221" t="s">
+        <v>12</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B222" t="s">
+        <v>13</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B223" t="s">
+        <v>14</v>
+      </c>
+      <c r="C223">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B224" t="s">
+        <v>15</v>
+      </c>
+      <c r="C224">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B225" t="s">
+        <v>16</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B226" t="s">
+        <v>17</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B227" t="s">
+        <v>3</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B228" t="s">
+        <v>4</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B229" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B230" t="s">
+        <v>6</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B231" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B232" t="s">
+        <v>8</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B233" t="s">
+        <v>9</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B234" t="s">
+        <v>10</v>
+      </c>
+      <c r="C234">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B235" t="s">
+        <v>11</v>
+      </c>
+      <c r="C235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B236" t="s">
+        <v>12</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B237" t="s">
+        <v>13</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B238" t="s">
+        <v>14</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B239" t="s">
+        <v>15</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B240" t="s">
+        <v>16</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B241" t="s">
+        <v>17</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B242" t="s">
+        <v>3</v>
+      </c>
+      <c r="C242">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B243" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B244" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B245" t="s">
+        <v>6</v>
+      </c>
+      <c r="C245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B246" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B247" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B248" t="s">
+        <v>9</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B249" t="s">
+        <v>10</v>
+      </c>
+      <c r="C249">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B250" t="s">
+        <v>11</v>
+      </c>
+      <c r="C250">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B251" t="s">
+        <v>12</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B252" t="s">
+        <v>13</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B253" t="s">
+        <v>14</v>
+      </c>
+      <c r="C253">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B254" t="s">
+        <v>15</v>
+      </c>
+      <c r="C254">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B255" t="s">
+        <v>16</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B256" t="s">
+        <v>17</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B257" t="s">
+        <v>3</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B258" t="s">
+        <v>4</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B259" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B260" t="s">
+        <v>6</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B261" t="s">
+        <v>7</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B262" t="s">
+        <v>8</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B263" t="s">
+        <v>9</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B264" t="s">
+        <v>10</v>
+      </c>
+      <c r="C264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B265" t="s">
+        <v>11</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B266" t="s">
+        <v>12</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B267" t="s">
+        <v>13</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B268" t="s">
+        <v>14</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B269" t="s">
+        <v>15</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B270" t="s">
+        <v>16</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B271" t="s">
+        <v>17</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B272" t="s">
+        <v>3</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B273" t="s">
+        <v>4</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B274" t="s">
+        <v>5</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B275" t="s">
+        <v>6</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B276" t="s">
+        <v>7</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B277" t="s">
+        <v>8</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B278" t="s">
+        <v>9</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B279" t="s">
+        <v>10</v>
+      </c>
+      <c r="C279">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B280" t="s">
+        <v>11</v>
+      </c>
+      <c r="C280">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B281" t="s">
+        <v>12</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B282" t="s">
+        <v>13</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B283" t="s">
+        <v>14</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B284" t="s">
+        <v>15</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B285" t="s">
+        <v>16</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B286" t="s">
+        <v>17</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B287" t="s">
+        <v>3</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B288" t="s">
+        <v>4</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B289" t="s">
+        <v>5</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B290" t="s">
+        <v>6</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B291" t="s">
+        <v>7</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B292" t="s">
+        <v>8</v>
+      </c>
+      <c r="C292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B293" t="s">
+        <v>9</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B294" t="s">
+        <v>10</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B295" t="s">
+        <v>11</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B296" t="s">
+        <v>12</v>
+      </c>
+      <c r="C296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B297" t="s">
+        <v>13</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B298" t="s">
+        <v>14</v>
+      </c>
+      <c r="C298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B300" t="s">
+        <v>16</v>
+      </c>
+      <c r="C300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B301" t="s">
+        <v>17</v>
+      </c>
+      <c r="C301">
         <v>0</v>
       </c>
     </row>
